--- a/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Toolbars.xlsx
+++ b/Excelens_Trunk/src/com/proj/objectRepository/ObjectsFile_Toolbars.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FluidTXGWS\Fulcrum_FluidTX_Trunk\src\com\proj\objectRepository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT_EXCL_JUL\Excelens_Trunk\src\com\proj\objectRepository\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>textbox</t>
   </si>
@@ -167,12 +167,15 @@
   </si>
   <si>
     <t>Ribbon.ListItem-title</t>
+  </si>
+  <si>
+    <t>movetoelement_click</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -583,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A37"/>
+  <dimension ref="A2:A38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -772,6 +775,11 @@
     <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +798,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
@@ -844,7 +854,7 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
         <v>48</v>
@@ -858,7 +868,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>40</v>
